--- a/result.xlsx
+++ b/result.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\SCH_Graduation_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAF4A62-0157-4B81-9233-ED78904F42D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>R2_01</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>RMSE_01</t>
   </si>
@@ -35,21 +33,36 @@
     <t>MAE_01</t>
   </si>
   <si>
-    <t>NRMSE_01</t>
+    <t>Decision Tree</t>
   </si>
   <si>
-    <t>단순 선형 회귀</t>
+    <t>Simple Linear Regression</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DT</t>
+    <t>Ranger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSE_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,12 +111,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,380 +406,368 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
       <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.44178960428766101</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="4">
         <v>0.82458604541279001</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="4">
         <v>0.56398454085116201</v>
       </c>
-      <c r="E3">
-        <v>59.947541828914602</v>
-      </c>
-      <c r="G3">
-        <v>0.27985023997533298</v>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
+        <v>0.87510540732364805</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.71934471619750795</v>
       </c>
       <c r="H3">
-        <v>0.87510540732364805</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="I3">
-        <v>0.71934471619750795</v>
-      </c>
-      <c r="J3">
-        <v>63.620307792113898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.35595236821703702</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="4">
         <v>0.904097548640861</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="4">
         <v>0.68427708590848701</v>
       </c>
-      <c r="E4">
-        <v>65.717006614696501</v>
-      </c>
-      <c r="G4">
-        <v>0.23968723834518599</v>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>0.90456248427386099</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.74395454545454498</v>
       </c>
       <c r="H4">
-        <v>0.90456248427386099</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="I4">
-        <v>0.74395454545454498</v>
-      </c>
-      <c r="J4">
-        <v>65.750801837474398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.17350412077241101</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="4">
         <v>1.08697697810004</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="4">
         <v>0.88830921565993304</v>
       </c>
-      <c r="E5">
-        <v>78.990320423959105</v>
-      </c>
-      <c r="G5">
-        <v>0.20902568857533299</v>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>0.92802000922248695</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.76448569450853698</v>
       </c>
       <c r="H5">
-        <v>0.92802000922248695</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="I5">
-        <v>0.76448569450853698</v>
-      </c>
-      <c r="J5">
-        <v>67.438960865998098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>3.5746046807455599E-2</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="4">
         <v>1.28119065999009</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="4">
         <v>1.06415204436344</v>
       </c>
-      <c r="E6">
-        <v>93.077509723950897</v>
-      </c>
-      <c r="G6">
-        <v>0.18561771193726301</v>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>0.94670221334736904</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.78012136594370096</v>
       </c>
       <c r="H6">
-        <v>0.94670221334736904</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="I6">
-        <v>0.78012136594370096</v>
-      </c>
-      <c r="J6">
-        <v>68.777182991020894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>3.5746047000000003E-2</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="4">
         <v>1.28119066</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="4">
         <v>1.0641520440000001</v>
       </c>
-      <c r="E7">
-        <v>93.077509719999995</v>
-      </c>
-      <c r="G7">
-        <v>0.167632756070897</v>
-      </c>
-      <c r="H7">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>0.96163855006394205</v>
       </c>
+      <c r="F7" s="4">
+        <v>0.79336986617443495</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.53</v>
+      </c>
       <c r="I7">
-        <v>0.79336986617443495</v>
-      </c>
-      <c r="J7">
-        <v>69.843880128152193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>2.0425673528012799E-2</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="4">
         <v>1.5208695818523399</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="4">
         <v>1.26521199653412</v>
       </c>
-      <c r="E8">
-        <v>110.439495604302</v>
-      </c>
-      <c r="G8">
-        <v>0.15370650612244799</v>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>0.97361220437293305</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.80375772958006497</v>
       </c>
       <c r="H8">
-        <v>0.97361220437293305</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="I8">
-        <v>0.80375772958006497</v>
-      </c>
-      <c r="J8">
-        <v>70.699843068844402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>2.5776828000000002E-2</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="4">
         <v>1.532533046</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="4">
         <v>1.2750988539999999</v>
       </c>
-      <c r="E9">
-        <v>111.27742600000001</v>
-      </c>
-      <c r="G9">
-        <v>0.14228921381396401</v>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>0.98372044137731096</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.81225519150899905</v>
       </c>
       <c r="H9">
-        <v>0.98372044137731096</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="I9">
-        <v>0.81225519150899905</v>
-      </c>
-      <c r="J9">
-        <v>71.428070616607599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>2.5776828000000002E-2</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="4">
         <v>1.532533046</v>
       </c>
-      <c r="D10">
+      <c r="C10" s="4">
         <v>1.2750988539999999</v>
       </c>
-      <c r="E10">
-        <v>111.27742600000001</v>
-      </c>
-      <c r="G10">
-        <v>0.13249403791271</v>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>0.99265537596462505</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.81977134287032805</v>
       </c>
       <c r="H10">
-        <v>0.99265537596462505</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="I10">
-        <v>0.81977134287032805</v>
-      </c>
-      <c r="J10">
-        <v>72.0769702224311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.2843106E-2</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="4">
         <v>1.339768415</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="4">
         <v>1.1044320000000001</v>
       </c>
-      <c r="E11">
-        <v>97.286139480000003</v>
-      </c>
-      <c r="G11">
-        <v>0.123891678975434</v>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>1.00076831582832</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.82715413013382599</v>
       </c>
       <c r="H11">
-        <v>1.00076831582832</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="I11">
-        <v>0.82715413013382599</v>
-      </c>
-      <c r="J11">
-        <v>72.669936718127701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.109713749</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="4">
         <v>1.163664593</v>
       </c>
-      <c r="D12">
+      <c r="C12" s="4">
         <v>0.94268836700000003</v>
       </c>
-      <c r="E12">
-        <v>84.502248489999999</v>
-      </c>
-      <c r="G12">
-        <v>0.11592336695377101</v>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>1.0084803546673</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.83382741116751302</v>
       </c>
       <c r="H12">
-        <v>1.0084803546673</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="I12">
-        <v>0.83382741116751302</v>
-      </c>
-      <c r="J12">
-        <v>73.2331790808405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.25646793800000001</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="4">
         <v>1.0080339309999999</v>
       </c>
-      <c r="D13">
+      <c r="C13" s="4">
         <v>0.76210678799999998</v>
       </c>
-      <c r="E13">
-        <v>73.18299141</v>
-      </c>
-      <c r="G13">
-        <v>0.115923367</v>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>1.0084803550000001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.83382741100000002</v>
       </c>
       <c r="H13">
-        <v>1.0084803550000001</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="I13">
-        <v>0.83382741100000002</v>
-      </c>
-      <c r="J13">
-        <v>73.233179079999999</v>
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4">
+        <f>AVERAGE(B3:B13)</f>
+        <v>1.2250404095451017</v>
+      </c>
+      <c r="C14" s="4">
+        <f>AVERAGE(C3:C13)</f>
+        <v>0.98995561730155834</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:I14" si="0">AVERAGE(E3:E13)</f>
+        <v>0.96215870104016321</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7938063095035871</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.52927272727272723</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.4018181818181818</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:J1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\SCH_Graduation_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAF4A62-0157-4B81-9233-ED78904F42D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28227FFA-893E-428C-B7FD-C843569908CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
-    <t>RMSE_01</t>
+    <t>Avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAE_01</t>
+    <t>Steps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simple Linear Regression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Decision Tree</t>
-  </si>
-  <si>
-    <t>Simple Linear Regression</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -44,15 +47,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RMSE_01</t>
+    <t>RMSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Steps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg</t>
+    <t>MAE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,9 +60,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +87,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,7 +138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,13 +146,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,364 +458,664 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.8984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.69921875" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="14.09765625" customWidth="1"/>
+    <col min="15" max="15" width="11.8984375" customWidth="1"/>
+    <col min="16" max="16" width="10.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.82458604541279001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.56398454085116201</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.87510540732364805</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.71934471619750795</v>
+      </c>
+      <c r="F4">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.82458604541279001</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.56398454085116201</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.87510540732364805</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.71934471619750795</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="B5" s="3">
+        <v>0.904097548640861</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.68427708590848701</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.90456248427386099</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.74395454545454498</v>
+      </c>
+      <c r="F5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.904097548640861</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.68427708590848701</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0.90456248427386099</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.74395454545454498</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.08697697810004</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.88830921565993304</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.92802000922248695</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.76448569450853698</v>
+      </c>
+      <c r="F6">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1.08697697810004</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.88830921565993304</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0.92802000922248695</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0.76448569450853698</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s">
+      <c r="B7" s="3">
+        <v>1.28119065999009</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.06415204436344</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.94670221334736904</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.78012136594370096</v>
+      </c>
+      <c r="F7">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G7">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="J7" s="7">
+        <v>4</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1.28119065999009</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1.06415204436344</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0.94670221334736904</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.78012136594370096</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.28119066</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.0641520440000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.96163855006394205</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.79336986617443495</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="G8">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="J8" s="7">
+        <v>5</v>
+      </c>
+      <c r="K8" s="11">
+        <v>1.28119066</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1.0641520440000001</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.96163855006394205</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0.79336986617443495</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.5208695818523399</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.26521199653412</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.97361220437293305</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.80375772958006497</v>
+      </c>
+      <c r="F9">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="J9" s="7">
+        <v>6</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1.5208695818523399</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1.26521199653412</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0.97361220437293305</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0.80375772958006497</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="P9" s="12">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.532533046</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.2750988539999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.98372044137731096</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.81225519150899905</v>
+      </c>
+      <c r="F10">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="G10">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="J10" s="7">
+        <v>7</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1.532533046</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1.2750988539999999</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0.98372044137731096</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0.81225519150899905</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.532533046</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.2750988539999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.99265537596462505</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.81977134287032805</v>
+      </c>
+      <c r="F11">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="G11">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="J11" s="7">
+        <v>8</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1.532533046</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1.2750988539999999</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0.99265537596462505</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0.81977134287032805</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.339768415</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.1044320000000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.00076831582832</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.82715413013382599</v>
+      </c>
+      <c r="F12">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="G12">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="J12" s="7">
+        <v>9</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1.339768415</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1.1044320000000001</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1.00076831582832</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0.82715413013382599</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.163664593</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.94268836700000003</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.0084803546673</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.83382741116751302</v>
+      </c>
+      <c r="F13">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="G13">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="J13" s="7">
+        <v>10</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1.163664593</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.94268836700000003</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1.0084803546673</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0.83382741116751302</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.0080339309999999</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.76210678799999998</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.0084803550000001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.83382741100000002</v>
+      </c>
+      <c r="F14">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="G14">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="J14" s="7">
+        <v>11</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1.0080339309999999</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.76210678799999998</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.0084803550000001</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0.83382741100000002</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.82458604541279001</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.56398454085116201</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4">
-        <v>0.87510540732364805</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.71934471619750795</v>
-      </c>
-      <c r="H3">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="I3">
-        <v>0.39300000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.904097548640861</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.68427708590848701</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
-        <v>0.90456248427386099</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.74395454545454498</v>
-      </c>
-      <c r="H4">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="I4">
-        <v>0.39900000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1.08697697810004</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.88830921565993304</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>0.92802000922248695</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.76448569450853698</v>
-      </c>
-      <c r="H5">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="I5">
-        <v>0.40200000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1.28119065999009</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.06415204436344</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>0.94670221334736904</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.78012136594370096</v>
-      </c>
-      <c r="H6">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="I6">
-        <v>0.40200000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1.28119066</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1.0641520440000001</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>0.96163855006394205</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.79336986617443495</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.53</v>
-      </c>
-      <c r="I7">
-        <v>0.40200000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1.5208695818523399</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.26521199653412</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>0.97361220437293305</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.80375772958006497</v>
-      </c>
-      <c r="H8">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="I8">
-        <v>0.40300000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1.532533046</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1.2750988539999999</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
-        <v>0.98372044137731096</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.81225519150899905</v>
-      </c>
-      <c r="H9">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="I9">
-        <v>0.40400000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1.532533046</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1.2750988539999999</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <v>0.99265537596462505</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.81977134287032805</v>
-      </c>
-      <c r="H10">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="I10">
-        <v>0.40300000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1.339768415</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1.1044320000000001</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <v>1.00076831582832</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.82715413013382599</v>
-      </c>
-      <c r="H11">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="I11">
-        <v>0.40400000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1.163664593</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.94268836700000003</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <v>1.0084803546673</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.83382741116751302</v>
-      </c>
-      <c r="H12">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="I12">
-        <v>0.40400000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1.0080339309999999</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.76210678799999998</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
-        <v>1.0084803550000001</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.83382741100000002</v>
-      </c>
-      <c r="H13">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="I13">
-        <v>0.40400000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4">
-        <f>AVERAGE(B3:B13)</f>
+      <c r="B15" s="3">
+        <f>AVERAGE(B4:B14)</f>
         <v>1.2250404095451017</v>
       </c>
-      <c r="C14" s="4">
-        <f>AVERAGE(C3:C13)</f>
+      <c r="C15" s="3">
+        <f>AVERAGE(C4:C14)</f>
         <v>0.98995561730155834</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
-        <f t="shared" ref="E14:I14" si="0">AVERAGE(E3:E13)</f>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:G15" si="0">AVERAGE(D4:D14)</f>
         <v>0.96215870104016321</v>
       </c>
-      <c r="F14" s="4">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>0.7938063095035871</v>
       </c>
-      <c r="H14">
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>0.52927272727272723</v>
       </c>
-      <c r="I14">
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>0.4018181818181818</v>
       </c>
+      <c r="J15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <f>AVERAGE(K4:K14)</f>
+        <v>1.2250404095451017</v>
+      </c>
+      <c r="L15" s="11">
+        <f>AVERAGE(L4:L14)</f>
+        <v>0.98995561730155834</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" ref="M15:P15" si="1">AVERAGE(M4:M14)</f>
+        <v>0.96215870104016321</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.7938063095035871</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.52927272727272723</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.4018181818181818</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="8">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\SCH_Graduation_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28227FFA-893E-428C-B7FD-C843569908CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45144B0C-B56E-4986-A653-31669D8CA974}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -166,16 +163,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +461,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:P15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -483,91 +483,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="12"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="3">
@@ -588,30 +588,30 @@
       <c r="G4">
         <v>0.39300000000000002</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>0.82458604541279001</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>0.56398454085116201</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="9">
         <v>0.87510540732364805</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <v>0.71934471619750795</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="10">
         <v>0.51800000000000002</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="10">
         <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="3">
@@ -632,30 +632,30 @@
       <c r="G5">
         <v>0.39900000000000002</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>2</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>0.904097548640861</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="9">
         <v>0.68427708590848701</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="9">
         <v>0.90456248427386099</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="9">
         <v>0.74395454545454498</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="10">
         <v>0.52700000000000002</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="10">
         <v>0.39900000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="3">
@@ -676,30 +676,30 @@
       <c r="G6">
         <v>0.40200000000000002</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>3</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>1.08697697810004</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <v>0.88830921565993304</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <v>0.92802000922248695</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="9">
         <v>0.76448569450853698</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="10">
         <v>0.52800000000000002</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="10">
         <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="3">
@@ -720,30 +720,30 @@
       <c r="G7">
         <v>0.40200000000000002</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>4</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>1.28119065999009</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="9">
         <v>1.06415204436344</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="9">
         <v>0.94670221334736904</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="9">
         <v>0.78012136594370096</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="10">
         <v>0.52900000000000003</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="10">
         <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="3">
@@ -764,30 +764,30 @@
       <c r="G8">
         <v>0.40200000000000002</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>5</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>1.28119066</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>1.0641520440000001</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="9">
         <v>0.96163855006394205</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="9">
         <v>0.79336986617443495</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="9">
         <v>0.53</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="10">
         <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="3">
@@ -808,30 +808,30 @@
       <c r="G9">
         <v>0.40300000000000002</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>6</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>1.5208695818523399</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <v>1.26521199653412</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="9">
         <v>0.97361220437293305</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="9">
         <v>0.80375772958006497</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="10">
         <v>0.53100000000000003</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="10">
         <v>0.40300000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="3">
@@ -852,30 +852,30 @@
       <c r="G10">
         <v>0.40400000000000003</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>7</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>1.532533046</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="9">
         <v>1.2750988539999999</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="9">
         <v>0.98372044137731096</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="9">
         <v>0.81225519150899905</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="10">
         <v>0.53100000000000003</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="10">
         <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="3">
@@ -896,30 +896,30 @@
       <c r="G11">
         <v>0.40300000000000002</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>8</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <v>1.532533046</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="9">
         <v>1.2750988539999999</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="9">
         <v>0.99265537596462505</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="9">
         <v>0.81977134287032805</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="10">
         <v>0.53100000000000003</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="10">
         <v>0.40300000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="3">
@@ -940,30 +940,30 @@
       <c r="G12">
         <v>0.40400000000000003</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>9</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <v>1.339768415</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="9">
         <v>1.1044320000000001</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="9">
         <v>1.00076831582832</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="9">
         <v>0.82715413013382599</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="10">
         <v>0.53200000000000003</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="10">
         <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="3">
@@ -984,30 +984,30 @@
       <c r="G13">
         <v>0.40400000000000003</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>10</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="9">
         <v>1.163664593</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="9">
         <v>0.94268836700000003</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="9">
         <v>1.0084803546673</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="9">
         <v>0.83382741116751302</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="10">
         <v>0.53200000000000003</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="10">
         <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="3">
@@ -1028,25 +1028,25 @@
       <c r="G14">
         <v>0.40400000000000003</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>11</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>1.0080339309999999</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="9">
         <v>0.76210678799999998</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="9">
         <v>1.0084803550000001</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="9">
         <v>0.83382741100000002</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="10">
         <v>0.53300000000000003</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="10">
         <v>0.40400000000000003</v>
       </c>
     </row>
@@ -1078,44 +1078,44 @@
         <f t="shared" si="0"/>
         <v>0.4018181818181818</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="9">
         <f>AVERAGE(K4:K14)</f>
         <v>1.2250404095451017</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="9">
         <f>AVERAGE(L4:L14)</f>
         <v>0.98995561730155834</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="9">
         <f t="shared" ref="M15:P15" si="1">AVERAGE(M4:M14)</f>
         <v>0.96215870104016321</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="9">
         <f t="shared" si="1"/>
         <v>0.7938063095035871</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="9">
         <f t="shared" si="1"/>
         <v>0.52927272727272723</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="9">
         <f t="shared" si="1"/>
         <v>0.4018181818181818</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
